--- a/core/seed_purchases_purchasereceiveheader.xlsx
+++ b/core/seed_purchases_purchasereceiveheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04CAE4A-3DA6-41AA-B320-5FD0E2FEBBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65852467-81B1-4B32-9079-A40DC7BFC764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -52,16 +52,10 @@
     <t>test-id-14</t>
   </si>
   <si>
-    <t>test-id-15</t>
-  </si>
-  <si>
     <t>RECEIVED (NO ISSUE)</t>
   </si>
   <si>
-    <t>RECEIVED (WITH ISSUE)</t>
-  </si>
-  <si>
-    <t>P REV 03</t>
+    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -906,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>45665</v>
+        <v>45662</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -960,33 +954,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>45665</v>
+        <v>45662</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45665</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/core/seed_purchases_purchasereceiveheader.xlsx
+++ b/core/seed_purchases_purchasereceiveheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65852467-81B1-4B32-9079-A40DC7BFC764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82589676-4010-40A1-9DBB-EF4B0FE87D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>HEADER CODE</t>
   </si>
   <si>
-    <t>P REQ 01</t>
-  </si>
-  <si>
-    <t>P REQ 02</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
@@ -43,19 +37,73 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>P REV 01</t>
-  </si>
-  <si>
-    <t>P REV 02</t>
-  </si>
-  <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
-    <t>RECEIVED (NO ISSUE)</t>
-  </si>
-  <si>
     <t>CLOSED</t>
+  </si>
+  <si>
+    <t>P-REC-1</t>
+  </si>
+  <si>
+    <t>TEST-ID-14</t>
+  </si>
+  <si>
+    <t>P-REQ-1</t>
+  </si>
+  <si>
+    <t>P-REC-2</t>
+  </si>
+  <si>
+    <t>TEST-ID-15</t>
+  </si>
+  <si>
+    <t>P-REQ-2</t>
+  </si>
+  <si>
+    <t>P-REC-3</t>
+  </si>
+  <si>
+    <t>P-REQ-3</t>
+  </si>
+  <si>
+    <t>P-REC-4</t>
+  </si>
+  <si>
+    <t>P-REQ-4</t>
+  </si>
+  <si>
+    <t>P-REC-5</t>
+  </si>
+  <si>
+    <t>P-REQ-5</t>
+  </si>
+  <si>
+    <t>P-REC-6</t>
+  </si>
+  <si>
+    <t>P-REQ-6</t>
+  </si>
+  <si>
+    <t>P-REC-7</t>
+  </si>
+  <si>
+    <t>P-REQ-7</t>
+  </si>
+  <si>
+    <t>P-REC-8</t>
+  </si>
+  <si>
+    <t>P-REQ-8</t>
+  </si>
+  <si>
+    <t>P-REC-9</t>
+  </si>
+  <si>
+    <t>P-REQ-9</t>
+  </si>
+  <si>
+    <t>P-REC-10</t>
+  </si>
+  <si>
+    <t>P-REQ-10</t>
   </si>
 </sst>
 </file>
@@ -63,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -544,7 +592,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,53 +965,189 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>45662</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>45662</v>
+        <v>45659</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45673</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/core/seed_purchases_purchasereceiveheader.xlsx
+++ b/core/seed_purchases_purchasereceiveheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82589676-4010-40A1-9DBB-EF4B0FE87D8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBAA83B-02DE-4F48-859E-B5DED595655F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="583">
   <si>
     <t>HEADER CODE</t>
   </si>
@@ -43,18 +43,12 @@
     <t>P-REC-1</t>
   </si>
   <si>
-    <t>TEST-ID-14</t>
-  </si>
-  <si>
     <t>P-REQ-1</t>
   </si>
   <si>
     <t>P-REC-2</t>
   </si>
   <si>
-    <t>TEST-ID-15</t>
-  </si>
-  <si>
     <t>P-REQ-2</t>
   </si>
   <si>
@@ -104,6 +98,1677 @@
   </si>
   <si>
     <t>P-REQ-10</t>
+  </si>
+  <si>
+    <t>EMP-ID-25</t>
+  </si>
+  <si>
+    <t>EMP-ID-27</t>
+  </si>
+  <si>
+    <t>EMP-ID-26</t>
+  </si>
+  <si>
+    <t>P-REC-11</t>
+  </si>
+  <si>
+    <t>P-REQ-11</t>
+  </si>
+  <si>
+    <t>P-REC-12</t>
+  </si>
+  <si>
+    <t>P-REQ-12</t>
+  </si>
+  <si>
+    <t>P-REC-13</t>
+  </si>
+  <si>
+    <t>P-REQ-13</t>
+  </si>
+  <si>
+    <t>P-REC-14</t>
+  </si>
+  <si>
+    <t>P-REQ-14</t>
+  </si>
+  <si>
+    <t>P-REC-15</t>
+  </si>
+  <si>
+    <t>P-REQ-15</t>
+  </si>
+  <si>
+    <t>P-REC-16</t>
+  </si>
+  <si>
+    <t>P-REQ-16</t>
+  </si>
+  <si>
+    <t>P-REC-17</t>
+  </si>
+  <si>
+    <t>P-REQ-17</t>
+  </si>
+  <si>
+    <t>P-REC-18</t>
+  </si>
+  <si>
+    <t>P-REQ-18</t>
+  </si>
+  <si>
+    <t>P-REC-19</t>
+  </si>
+  <si>
+    <t>P-REQ-19</t>
+  </si>
+  <si>
+    <t>P-REC-20</t>
+  </si>
+  <si>
+    <t>P-REQ-20</t>
+  </si>
+  <si>
+    <t>P-REC-21</t>
+  </si>
+  <si>
+    <t>P-REQ-21</t>
+  </si>
+  <si>
+    <t>P-REC-22</t>
+  </si>
+  <si>
+    <t>P-REQ-22</t>
+  </si>
+  <si>
+    <t>P-REC-23</t>
+  </si>
+  <si>
+    <t>P-REQ-23</t>
+  </si>
+  <si>
+    <t>P-REC-24</t>
+  </si>
+  <si>
+    <t>P-REQ-24</t>
+  </si>
+  <si>
+    <t>P-REC-25</t>
+  </si>
+  <si>
+    <t>P-REQ-25</t>
+  </si>
+  <si>
+    <t>P-REC-26</t>
+  </si>
+  <si>
+    <t>P-REQ-26</t>
+  </si>
+  <si>
+    <t>P-REC-27</t>
+  </si>
+  <si>
+    <t>P-REQ-27</t>
+  </si>
+  <si>
+    <t>P-REC-28</t>
+  </si>
+  <si>
+    <t>P-REQ-28</t>
+  </si>
+  <si>
+    <t>P-REC-29</t>
+  </si>
+  <si>
+    <t>P-REQ-29</t>
+  </si>
+  <si>
+    <t>P-REC-30</t>
+  </si>
+  <si>
+    <t>P-REQ-30</t>
+  </si>
+  <si>
+    <t>P-REC-31</t>
+  </si>
+  <si>
+    <t>P-REQ-31</t>
+  </si>
+  <si>
+    <t>P-REC-32</t>
+  </si>
+  <si>
+    <t>P-REQ-32</t>
+  </si>
+  <si>
+    <t>P-REC-33</t>
+  </si>
+  <si>
+    <t>P-REQ-33</t>
+  </si>
+  <si>
+    <t>P-REC-34</t>
+  </si>
+  <si>
+    <t>P-REQ-34</t>
+  </si>
+  <si>
+    <t>P-REC-35</t>
+  </si>
+  <si>
+    <t>P-REQ-35</t>
+  </si>
+  <si>
+    <t>P-REC-36</t>
+  </si>
+  <si>
+    <t>P-REQ-36</t>
+  </si>
+  <si>
+    <t>P-REC-37</t>
+  </si>
+  <si>
+    <t>P-REQ-37</t>
+  </si>
+  <si>
+    <t>P-REC-38</t>
+  </si>
+  <si>
+    <t>P-REQ-38</t>
+  </si>
+  <si>
+    <t>P-REC-39</t>
+  </si>
+  <si>
+    <t>P-REQ-39</t>
+  </si>
+  <si>
+    <t>P-REC-40</t>
+  </si>
+  <si>
+    <t>P-REQ-40</t>
+  </si>
+  <si>
+    <t>P-REC-41</t>
+  </si>
+  <si>
+    <t>P-REQ-41</t>
+  </si>
+  <si>
+    <t>P-REC-42</t>
+  </si>
+  <si>
+    <t>P-REQ-42</t>
+  </si>
+  <si>
+    <t>P-REC-43</t>
+  </si>
+  <si>
+    <t>P-REQ-43</t>
+  </si>
+  <si>
+    <t>P-REC-44</t>
+  </si>
+  <si>
+    <t>P-REQ-44</t>
+  </si>
+  <si>
+    <t>P-REC-45</t>
+  </si>
+  <si>
+    <t>P-REQ-45</t>
+  </si>
+  <si>
+    <t>P-REC-46</t>
+  </si>
+  <si>
+    <t>P-REQ-46</t>
+  </si>
+  <si>
+    <t>P-REC-47</t>
+  </si>
+  <si>
+    <t>P-REQ-47</t>
+  </si>
+  <si>
+    <t>P-REC-48</t>
+  </si>
+  <si>
+    <t>P-REQ-48</t>
+  </si>
+  <si>
+    <t>P-REC-49</t>
+  </si>
+  <si>
+    <t>P-REQ-49</t>
+  </si>
+  <si>
+    <t>P-REC-50</t>
+  </si>
+  <si>
+    <t>P-REQ-50</t>
+  </si>
+  <si>
+    <t>P-REC-51</t>
+  </si>
+  <si>
+    <t>P-REQ-51</t>
+  </si>
+  <si>
+    <t>P-REC-52</t>
+  </si>
+  <si>
+    <t>P-REQ-52</t>
+  </si>
+  <si>
+    <t>P-REC-53</t>
+  </si>
+  <si>
+    <t>P-REQ-53</t>
+  </si>
+  <si>
+    <t>P-REC-54</t>
+  </si>
+  <si>
+    <t>P-REQ-54</t>
+  </si>
+  <si>
+    <t>P-REC-55</t>
+  </si>
+  <si>
+    <t>P-REQ-55</t>
+  </si>
+  <si>
+    <t>P-REC-56</t>
+  </si>
+  <si>
+    <t>P-REQ-56</t>
+  </si>
+  <si>
+    <t>P-REC-57</t>
+  </si>
+  <si>
+    <t>P-REQ-57</t>
+  </si>
+  <si>
+    <t>P-REC-58</t>
+  </si>
+  <si>
+    <t>P-REQ-58</t>
+  </si>
+  <si>
+    <t>P-REC-59</t>
+  </si>
+  <si>
+    <t>P-REQ-59</t>
+  </si>
+  <si>
+    <t>P-REC-60</t>
+  </si>
+  <si>
+    <t>P-REQ-60</t>
+  </si>
+  <si>
+    <t>P-REC-61</t>
+  </si>
+  <si>
+    <t>P-REQ-61</t>
+  </si>
+  <si>
+    <t>P-REC-62</t>
+  </si>
+  <si>
+    <t>P-REQ-62</t>
+  </si>
+  <si>
+    <t>P-REC-63</t>
+  </si>
+  <si>
+    <t>P-REQ-63</t>
+  </si>
+  <si>
+    <t>P-REC-64</t>
+  </si>
+  <si>
+    <t>P-REQ-64</t>
+  </si>
+  <si>
+    <t>P-REC-65</t>
+  </si>
+  <si>
+    <t>P-REQ-65</t>
+  </si>
+  <si>
+    <t>P-REC-66</t>
+  </si>
+  <si>
+    <t>P-REQ-66</t>
+  </si>
+  <si>
+    <t>P-REC-67</t>
+  </si>
+  <si>
+    <t>P-REQ-67</t>
+  </si>
+  <si>
+    <t>P-REC-68</t>
+  </si>
+  <si>
+    <t>P-REQ-68</t>
+  </si>
+  <si>
+    <t>P-REC-69</t>
+  </si>
+  <si>
+    <t>P-REQ-69</t>
+  </si>
+  <si>
+    <t>P-REC-70</t>
+  </si>
+  <si>
+    <t>P-REQ-70</t>
+  </si>
+  <si>
+    <t>P-REC-71</t>
+  </si>
+  <si>
+    <t>P-REQ-71</t>
+  </si>
+  <si>
+    <t>P-REC-72</t>
+  </si>
+  <si>
+    <t>P-REQ-72</t>
+  </si>
+  <si>
+    <t>P-REC-73</t>
+  </si>
+  <si>
+    <t>P-REQ-73</t>
+  </si>
+  <si>
+    <t>P-REC-74</t>
+  </si>
+  <si>
+    <t>P-REQ-74</t>
+  </si>
+  <si>
+    <t>P-REC-75</t>
+  </si>
+  <si>
+    <t>P-REQ-75</t>
+  </si>
+  <si>
+    <t>P-REC-76</t>
+  </si>
+  <si>
+    <t>P-REQ-76</t>
+  </si>
+  <si>
+    <t>P-REC-77</t>
+  </si>
+  <si>
+    <t>P-REQ-77</t>
+  </si>
+  <si>
+    <t>P-REC-78</t>
+  </si>
+  <si>
+    <t>P-REQ-78</t>
+  </si>
+  <si>
+    <t>P-REC-79</t>
+  </si>
+  <si>
+    <t>P-REQ-79</t>
+  </si>
+  <si>
+    <t>P-REC-80</t>
+  </si>
+  <si>
+    <t>P-REQ-80</t>
+  </si>
+  <si>
+    <t>P-REC-81</t>
+  </si>
+  <si>
+    <t>P-REQ-81</t>
+  </si>
+  <si>
+    <t>P-REC-82</t>
+  </si>
+  <si>
+    <t>P-REQ-82</t>
+  </si>
+  <si>
+    <t>P-REC-83</t>
+  </si>
+  <si>
+    <t>P-REQ-83</t>
+  </si>
+  <si>
+    <t>P-REC-84</t>
+  </si>
+  <si>
+    <t>P-REQ-84</t>
+  </si>
+  <si>
+    <t>P-REC-85</t>
+  </si>
+  <si>
+    <t>P-REQ-85</t>
+  </si>
+  <si>
+    <t>P-REC-86</t>
+  </si>
+  <si>
+    <t>P-REQ-86</t>
+  </si>
+  <si>
+    <t>P-REC-87</t>
+  </si>
+  <si>
+    <t>P-REQ-87</t>
+  </si>
+  <si>
+    <t>P-REC-88</t>
+  </si>
+  <si>
+    <t>P-REQ-88</t>
+  </si>
+  <si>
+    <t>P-REC-89</t>
+  </si>
+  <si>
+    <t>P-REQ-89</t>
+  </si>
+  <si>
+    <t>P-REC-90</t>
+  </si>
+  <si>
+    <t>P-REQ-90</t>
+  </si>
+  <si>
+    <t>P-REC-91</t>
+  </si>
+  <si>
+    <t>P-REQ-91</t>
+  </si>
+  <si>
+    <t>P-REC-92</t>
+  </si>
+  <si>
+    <t>P-REQ-92</t>
+  </si>
+  <si>
+    <t>P-REC-93</t>
+  </si>
+  <si>
+    <t>P-REQ-93</t>
+  </si>
+  <si>
+    <t>P-REC-94</t>
+  </si>
+  <si>
+    <t>P-REQ-94</t>
+  </si>
+  <si>
+    <t>P-REC-95</t>
+  </si>
+  <si>
+    <t>P-REQ-95</t>
+  </si>
+  <si>
+    <t>P-REC-96</t>
+  </si>
+  <si>
+    <t>P-REQ-96</t>
+  </si>
+  <si>
+    <t>P-REC-97</t>
+  </si>
+  <si>
+    <t>P-REQ-97</t>
+  </si>
+  <si>
+    <t>P-REC-98</t>
+  </si>
+  <si>
+    <t>P-REQ-98</t>
+  </si>
+  <si>
+    <t>P-REC-99</t>
+  </si>
+  <si>
+    <t>P-REQ-99</t>
+  </si>
+  <si>
+    <t>P-REC-100</t>
+  </si>
+  <si>
+    <t>P-REQ-100</t>
+  </si>
+  <si>
+    <t>P-REC-101</t>
+  </si>
+  <si>
+    <t>P-REQ-101</t>
+  </si>
+  <si>
+    <t>P-REC-102</t>
+  </si>
+  <si>
+    <t>P-REQ-102</t>
+  </si>
+  <si>
+    <t>P-REC-103</t>
+  </si>
+  <si>
+    <t>P-REQ-103</t>
+  </si>
+  <si>
+    <t>P-REC-104</t>
+  </si>
+  <si>
+    <t>P-REQ-104</t>
+  </si>
+  <si>
+    <t>P-REC-105</t>
+  </si>
+  <si>
+    <t>P-REQ-105</t>
+  </si>
+  <si>
+    <t>P-REC-106</t>
+  </si>
+  <si>
+    <t>P-REQ-106</t>
+  </si>
+  <si>
+    <t>P-REC-107</t>
+  </si>
+  <si>
+    <t>P-REQ-107</t>
+  </si>
+  <si>
+    <t>P-REC-108</t>
+  </si>
+  <si>
+    <t>P-REQ-108</t>
+  </si>
+  <si>
+    <t>P-REC-109</t>
+  </si>
+  <si>
+    <t>P-REQ-109</t>
+  </si>
+  <si>
+    <t>P-REC-110</t>
+  </si>
+  <si>
+    <t>P-REQ-110</t>
+  </si>
+  <si>
+    <t>P-REC-111</t>
+  </si>
+  <si>
+    <t>P-REQ-111</t>
+  </si>
+  <si>
+    <t>P-REC-112</t>
+  </si>
+  <si>
+    <t>P-REQ-112</t>
+  </si>
+  <si>
+    <t>P-REC-113</t>
+  </si>
+  <si>
+    <t>P-REQ-113</t>
+  </si>
+  <si>
+    <t>P-REC-114</t>
+  </si>
+  <si>
+    <t>P-REQ-114</t>
+  </si>
+  <si>
+    <t>P-REC-115</t>
+  </si>
+  <si>
+    <t>P-REQ-115</t>
+  </si>
+  <si>
+    <t>P-REC-116</t>
+  </si>
+  <si>
+    <t>P-REQ-116</t>
+  </si>
+  <si>
+    <t>P-REC-117</t>
+  </si>
+  <si>
+    <t>P-REQ-117</t>
+  </si>
+  <si>
+    <t>P-REC-118</t>
+  </si>
+  <si>
+    <t>P-REQ-118</t>
+  </si>
+  <si>
+    <t>P-REC-119</t>
+  </si>
+  <si>
+    <t>P-REQ-119</t>
+  </si>
+  <si>
+    <t>P-REC-120</t>
+  </si>
+  <si>
+    <t>P-REQ-120</t>
+  </si>
+  <si>
+    <t>P-REC-121</t>
+  </si>
+  <si>
+    <t>P-REQ-121</t>
+  </si>
+  <si>
+    <t>P-REC-122</t>
+  </si>
+  <si>
+    <t>P-REQ-122</t>
+  </si>
+  <si>
+    <t>P-REC-123</t>
+  </si>
+  <si>
+    <t>P-REQ-123</t>
+  </si>
+  <si>
+    <t>P-REC-124</t>
+  </si>
+  <si>
+    <t>P-REQ-124</t>
+  </si>
+  <si>
+    <t>P-REC-125</t>
+  </si>
+  <si>
+    <t>P-REQ-125</t>
+  </si>
+  <si>
+    <t>P-REC-126</t>
+  </si>
+  <si>
+    <t>P-REQ-126</t>
+  </si>
+  <si>
+    <t>P-REC-127</t>
+  </si>
+  <si>
+    <t>P-REQ-127</t>
+  </si>
+  <si>
+    <t>P-REC-128</t>
+  </si>
+  <si>
+    <t>P-REQ-128</t>
+  </si>
+  <si>
+    <t>P-REC-129</t>
+  </si>
+  <si>
+    <t>P-REQ-129</t>
+  </si>
+  <si>
+    <t>P-REC-130</t>
+  </si>
+  <si>
+    <t>P-REQ-130</t>
+  </si>
+  <si>
+    <t>P-REC-131</t>
+  </si>
+  <si>
+    <t>P-REQ-131</t>
+  </si>
+  <si>
+    <t>P-REC-132</t>
+  </si>
+  <si>
+    <t>P-REQ-132</t>
+  </si>
+  <si>
+    <t>P-REC-133</t>
+  </si>
+  <si>
+    <t>P-REQ-133</t>
+  </si>
+  <si>
+    <t>P-REC-134</t>
+  </si>
+  <si>
+    <t>P-REQ-134</t>
+  </si>
+  <si>
+    <t>P-REC-135</t>
+  </si>
+  <si>
+    <t>P-REQ-135</t>
+  </si>
+  <si>
+    <t>P-REC-136</t>
+  </si>
+  <si>
+    <t>P-REQ-136</t>
+  </si>
+  <si>
+    <t>P-REC-137</t>
+  </si>
+  <si>
+    <t>P-REQ-137</t>
+  </si>
+  <si>
+    <t>P-REC-138</t>
+  </si>
+  <si>
+    <t>P-REQ-138</t>
+  </si>
+  <si>
+    <t>P-REC-139</t>
+  </si>
+  <si>
+    <t>P-REQ-139</t>
+  </si>
+  <si>
+    <t>P-REC-140</t>
+  </si>
+  <si>
+    <t>P-REQ-140</t>
+  </si>
+  <si>
+    <t>P-REC-141</t>
+  </si>
+  <si>
+    <t>P-REQ-141</t>
+  </si>
+  <si>
+    <t>P-REC-142</t>
+  </si>
+  <si>
+    <t>P-REQ-142</t>
+  </si>
+  <si>
+    <t>P-REC-143</t>
+  </si>
+  <si>
+    <t>P-REQ-143</t>
+  </si>
+  <si>
+    <t>P-REC-144</t>
+  </si>
+  <si>
+    <t>P-REQ-144</t>
+  </si>
+  <si>
+    <t>P-REC-145</t>
+  </si>
+  <si>
+    <t>P-REQ-145</t>
+  </si>
+  <si>
+    <t>P-REC-146</t>
+  </si>
+  <si>
+    <t>P-REQ-146</t>
+  </si>
+  <si>
+    <t>P-REC-147</t>
+  </si>
+  <si>
+    <t>P-REQ-147</t>
+  </si>
+  <si>
+    <t>P-REC-148</t>
+  </si>
+  <si>
+    <t>P-REQ-148</t>
+  </si>
+  <si>
+    <t>P-REC-149</t>
+  </si>
+  <si>
+    <t>P-REQ-149</t>
+  </si>
+  <si>
+    <t>P-REC-150</t>
+  </si>
+  <si>
+    <t>P-REQ-150</t>
+  </si>
+  <si>
+    <t>P-REC-151</t>
+  </si>
+  <si>
+    <t>P-REQ-151</t>
+  </si>
+  <si>
+    <t>P-REC-152</t>
+  </si>
+  <si>
+    <t>P-REQ-152</t>
+  </si>
+  <si>
+    <t>P-REC-153</t>
+  </si>
+  <si>
+    <t>P-REQ-153</t>
+  </si>
+  <si>
+    <t>P-REC-154</t>
+  </si>
+  <si>
+    <t>P-REQ-154</t>
+  </si>
+  <si>
+    <t>P-REC-155</t>
+  </si>
+  <si>
+    <t>P-REQ-155</t>
+  </si>
+  <si>
+    <t>P-REC-156</t>
+  </si>
+  <si>
+    <t>P-REQ-156</t>
+  </si>
+  <si>
+    <t>P-REC-157</t>
+  </si>
+  <si>
+    <t>P-REQ-157</t>
+  </si>
+  <si>
+    <t>P-REC-158</t>
+  </si>
+  <si>
+    <t>P-REQ-158</t>
+  </si>
+  <si>
+    <t>P-REC-159</t>
+  </si>
+  <si>
+    <t>P-REQ-159</t>
+  </si>
+  <si>
+    <t>P-REC-160</t>
+  </si>
+  <si>
+    <t>P-REQ-160</t>
+  </si>
+  <si>
+    <t>P-REC-161</t>
+  </si>
+  <si>
+    <t>P-REQ-161</t>
+  </si>
+  <si>
+    <t>P-REC-162</t>
+  </si>
+  <si>
+    <t>P-REQ-162</t>
+  </si>
+  <si>
+    <t>P-REC-163</t>
+  </si>
+  <si>
+    <t>P-REQ-163</t>
+  </si>
+  <si>
+    <t>P-REC-164</t>
+  </si>
+  <si>
+    <t>P-REQ-164</t>
+  </si>
+  <si>
+    <t>P-REC-165</t>
+  </si>
+  <si>
+    <t>P-REQ-165</t>
+  </si>
+  <si>
+    <t>P-REC-166</t>
+  </si>
+  <si>
+    <t>P-REQ-166</t>
+  </si>
+  <si>
+    <t>P-REC-167</t>
+  </si>
+  <si>
+    <t>P-REQ-167</t>
+  </si>
+  <si>
+    <t>P-REC-168</t>
+  </si>
+  <si>
+    <t>P-REQ-168</t>
+  </si>
+  <si>
+    <t>P-REC-169</t>
+  </si>
+  <si>
+    <t>P-REQ-169</t>
+  </si>
+  <si>
+    <t>P-REC-170</t>
+  </si>
+  <si>
+    <t>P-REQ-170</t>
+  </si>
+  <si>
+    <t>P-REC-171</t>
+  </si>
+  <si>
+    <t>P-REQ-171</t>
+  </si>
+  <si>
+    <t>P-REC-172</t>
+  </si>
+  <si>
+    <t>P-REQ-172</t>
+  </si>
+  <si>
+    <t>P-REC-173</t>
+  </si>
+  <si>
+    <t>P-REQ-173</t>
+  </si>
+  <si>
+    <t>P-REC-174</t>
+  </si>
+  <si>
+    <t>P-REQ-174</t>
+  </si>
+  <si>
+    <t>P-REC-175</t>
+  </si>
+  <si>
+    <t>P-REQ-175</t>
+  </si>
+  <si>
+    <t>P-REC-176</t>
+  </si>
+  <si>
+    <t>P-REQ-176</t>
+  </si>
+  <si>
+    <t>P-REC-177</t>
+  </si>
+  <si>
+    <t>P-REQ-177</t>
+  </si>
+  <si>
+    <t>P-REC-178</t>
+  </si>
+  <si>
+    <t>P-REQ-178</t>
+  </si>
+  <si>
+    <t>P-REC-179</t>
+  </si>
+  <si>
+    <t>P-REQ-179</t>
+  </si>
+  <si>
+    <t>P-REC-180</t>
+  </si>
+  <si>
+    <t>P-REQ-180</t>
+  </si>
+  <si>
+    <t>P-REC-181</t>
+  </si>
+  <si>
+    <t>P-REQ-181</t>
+  </si>
+  <si>
+    <t>P-REC-182</t>
+  </si>
+  <si>
+    <t>P-REQ-182</t>
+  </si>
+  <si>
+    <t>P-REC-183</t>
+  </si>
+  <si>
+    <t>P-REQ-183</t>
+  </si>
+  <si>
+    <t>P-REC-184</t>
+  </si>
+  <si>
+    <t>P-REQ-184</t>
+  </si>
+  <si>
+    <t>P-REC-185</t>
+  </si>
+  <si>
+    <t>P-REQ-185</t>
+  </si>
+  <si>
+    <t>P-REC-186</t>
+  </si>
+  <si>
+    <t>P-REQ-186</t>
+  </si>
+  <si>
+    <t>P-REC-187</t>
+  </si>
+  <si>
+    <t>P-REQ-187</t>
+  </si>
+  <si>
+    <t>P-REC-188</t>
+  </si>
+  <si>
+    <t>P-REQ-188</t>
+  </si>
+  <si>
+    <t>P-REC-189</t>
+  </si>
+  <si>
+    <t>P-REQ-189</t>
+  </si>
+  <si>
+    <t>P-REC-190</t>
+  </si>
+  <si>
+    <t>P-REQ-190</t>
+  </si>
+  <si>
+    <t>P-REC-191</t>
+  </si>
+  <si>
+    <t>P-REQ-191</t>
+  </si>
+  <si>
+    <t>P-REC-192</t>
+  </si>
+  <si>
+    <t>P-REQ-192</t>
+  </si>
+  <si>
+    <t>P-REC-193</t>
+  </si>
+  <si>
+    <t>P-REQ-193</t>
+  </si>
+  <si>
+    <t>P-REC-194</t>
+  </si>
+  <si>
+    <t>P-REQ-194</t>
+  </si>
+  <si>
+    <t>P-REC-195</t>
+  </si>
+  <si>
+    <t>P-REQ-195</t>
+  </si>
+  <si>
+    <t>P-REC-196</t>
+  </si>
+  <si>
+    <t>P-REQ-196</t>
+  </si>
+  <si>
+    <t>P-REC-197</t>
+  </si>
+  <si>
+    <t>P-REQ-197</t>
+  </si>
+  <si>
+    <t>P-REC-198</t>
+  </si>
+  <si>
+    <t>P-REQ-198</t>
+  </si>
+  <si>
+    <t>P-REC-199</t>
+  </si>
+  <si>
+    <t>P-REQ-199</t>
+  </si>
+  <si>
+    <t>P-REC-200</t>
+  </si>
+  <si>
+    <t>P-REQ-200</t>
+  </si>
+  <si>
+    <t>P-REC-201</t>
+  </si>
+  <si>
+    <t>P-REQ-201</t>
+  </si>
+  <si>
+    <t>P-REC-202</t>
+  </si>
+  <si>
+    <t>P-REQ-202</t>
+  </si>
+  <si>
+    <t>P-REC-203</t>
+  </si>
+  <si>
+    <t>P-REQ-203</t>
+  </si>
+  <si>
+    <t>P-REC-204</t>
+  </si>
+  <si>
+    <t>P-REQ-204</t>
+  </si>
+  <si>
+    <t>P-REC-205</t>
+  </si>
+  <si>
+    <t>P-REQ-205</t>
+  </si>
+  <si>
+    <t>P-REC-206</t>
+  </si>
+  <si>
+    <t>P-REQ-206</t>
+  </si>
+  <si>
+    <t>P-REC-207</t>
+  </si>
+  <si>
+    <t>P-REQ-207</t>
+  </si>
+  <si>
+    <t>P-REC-208</t>
+  </si>
+  <si>
+    <t>P-REQ-208</t>
+  </si>
+  <si>
+    <t>P-REC-209</t>
+  </si>
+  <si>
+    <t>P-REQ-209</t>
+  </si>
+  <si>
+    <t>P-REC-210</t>
+  </si>
+  <si>
+    <t>P-REQ-210</t>
+  </si>
+  <si>
+    <t>P-REC-211</t>
+  </si>
+  <si>
+    <t>P-REQ-211</t>
+  </si>
+  <si>
+    <t>P-REC-212</t>
+  </si>
+  <si>
+    <t>P-REQ-212</t>
+  </si>
+  <si>
+    <t>P-REC-213</t>
+  </si>
+  <si>
+    <t>P-REQ-213</t>
+  </si>
+  <si>
+    <t>P-REC-214</t>
+  </si>
+  <si>
+    <t>P-REQ-214</t>
+  </si>
+  <si>
+    <t>P-REC-215</t>
+  </si>
+  <si>
+    <t>P-REQ-215</t>
+  </si>
+  <si>
+    <t>P-REC-216</t>
+  </si>
+  <si>
+    <t>P-REQ-216</t>
+  </si>
+  <si>
+    <t>P-REC-217</t>
+  </si>
+  <si>
+    <t>P-REQ-217</t>
+  </si>
+  <si>
+    <t>P-REC-218</t>
+  </si>
+  <si>
+    <t>P-REQ-218</t>
+  </si>
+  <si>
+    <t>P-REC-219</t>
+  </si>
+  <si>
+    <t>P-REQ-219</t>
+  </si>
+  <si>
+    <t>P-REC-220</t>
+  </si>
+  <si>
+    <t>P-REQ-220</t>
+  </si>
+  <si>
+    <t>P-REC-221</t>
+  </si>
+  <si>
+    <t>P-REQ-221</t>
+  </si>
+  <si>
+    <t>P-REC-222</t>
+  </si>
+  <si>
+    <t>P-REQ-222</t>
+  </si>
+  <si>
+    <t>P-REC-223</t>
+  </si>
+  <si>
+    <t>P-REQ-223</t>
+  </si>
+  <si>
+    <t>P-REC-224</t>
+  </si>
+  <si>
+    <t>P-REQ-224</t>
+  </si>
+  <si>
+    <t>P-REC-225</t>
+  </si>
+  <si>
+    <t>P-REQ-225</t>
+  </si>
+  <si>
+    <t>P-REC-226</t>
+  </si>
+  <si>
+    <t>P-REQ-226</t>
+  </si>
+  <si>
+    <t>P-REC-227</t>
+  </si>
+  <si>
+    <t>P-REQ-227</t>
+  </si>
+  <si>
+    <t>P-REC-228</t>
+  </si>
+  <si>
+    <t>P-REQ-228</t>
+  </si>
+  <si>
+    <t>P-REC-229</t>
+  </si>
+  <si>
+    <t>P-REQ-229</t>
+  </si>
+  <si>
+    <t>P-REC-230</t>
+  </si>
+  <si>
+    <t>P-REQ-230</t>
+  </si>
+  <si>
+    <t>P-REC-231</t>
+  </si>
+  <si>
+    <t>P-REQ-231</t>
+  </si>
+  <si>
+    <t>P-REC-232</t>
+  </si>
+  <si>
+    <t>P-REQ-232</t>
+  </si>
+  <si>
+    <t>P-REC-233</t>
+  </si>
+  <si>
+    <t>P-REQ-233</t>
+  </si>
+  <si>
+    <t>P-REC-234</t>
+  </si>
+  <si>
+    <t>P-REQ-234</t>
+  </si>
+  <si>
+    <t>P-REC-235</t>
+  </si>
+  <si>
+    <t>P-REQ-235</t>
+  </si>
+  <si>
+    <t>P-REC-236</t>
+  </si>
+  <si>
+    <t>P-REQ-236</t>
+  </si>
+  <si>
+    <t>P-REC-237</t>
+  </si>
+  <si>
+    <t>P-REQ-237</t>
+  </si>
+  <si>
+    <t>P-REC-238</t>
+  </si>
+  <si>
+    <t>P-REQ-238</t>
+  </si>
+  <si>
+    <t>P-REC-239</t>
+  </si>
+  <si>
+    <t>P-REQ-239</t>
+  </si>
+  <si>
+    <t>P-REC-240</t>
+  </si>
+  <si>
+    <t>P-REQ-240</t>
+  </si>
+  <si>
+    <t>P-REC-241</t>
+  </si>
+  <si>
+    <t>P-REQ-241</t>
+  </si>
+  <si>
+    <t>P-REC-242</t>
+  </si>
+  <si>
+    <t>P-REQ-242</t>
+  </si>
+  <si>
+    <t>P-REC-243</t>
+  </si>
+  <si>
+    <t>P-REQ-243</t>
+  </si>
+  <si>
+    <t>P-REC-244</t>
+  </si>
+  <si>
+    <t>P-REQ-244</t>
+  </si>
+  <si>
+    <t>P-REC-245</t>
+  </si>
+  <si>
+    <t>P-REQ-245</t>
+  </si>
+  <si>
+    <t>P-REC-246</t>
+  </si>
+  <si>
+    <t>P-REQ-246</t>
+  </si>
+  <si>
+    <t>P-REC-247</t>
+  </si>
+  <si>
+    <t>P-REQ-247</t>
+  </si>
+  <si>
+    <t>P-REC-248</t>
+  </si>
+  <si>
+    <t>P-REQ-248</t>
+  </si>
+  <si>
+    <t>P-REC-249</t>
+  </si>
+  <si>
+    <t>P-REQ-249</t>
+  </si>
+  <si>
+    <t>P-REC-250</t>
+  </si>
+  <si>
+    <t>P-REQ-250</t>
+  </si>
+  <si>
+    <t>P-REC-251</t>
+  </si>
+  <si>
+    <t>P-REQ-251</t>
+  </si>
+  <si>
+    <t>P-REC-252</t>
+  </si>
+  <si>
+    <t>P-REQ-252</t>
+  </si>
+  <si>
+    <t>P-REC-253</t>
+  </si>
+  <si>
+    <t>P-REQ-253</t>
+  </si>
+  <si>
+    <t>P-REC-254</t>
+  </si>
+  <si>
+    <t>P-REQ-254</t>
+  </si>
+  <si>
+    <t>P-REC-255</t>
+  </si>
+  <si>
+    <t>P-REQ-255</t>
+  </si>
+  <si>
+    <t>P-REC-256</t>
+  </si>
+  <si>
+    <t>P-REQ-256</t>
+  </si>
+  <si>
+    <t>P-REC-257</t>
+  </si>
+  <si>
+    <t>P-REQ-257</t>
+  </si>
+  <si>
+    <t>P-REC-258</t>
+  </si>
+  <si>
+    <t>P-REQ-258</t>
+  </si>
+  <si>
+    <t>P-REC-259</t>
+  </si>
+  <si>
+    <t>P-REQ-259</t>
+  </si>
+  <si>
+    <t>P-REC-260</t>
+  </si>
+  <si>
+    <t>P-REQ-260</t>
+  </si>
+  <si>
+    <t>P-REC-261</t>
+  </si>
+  <si>
+    <t>P-REQ-261</t>
+  </si>
+  <si>
+    <t>P-REC-262</t>
+  </si>
+  <si>
+    <t>P-REQ-262</t>
+  </si>
+  <si>
+    <t>P-REC-263</t>
+  </si>
+  <si>
+    <t>P-REQ-263</t>
+  </si>
+  <si>
+    <t>P-REC-264</t>
+  </si>
+  <si>
+    <t>P-REQ-264</t>
+  </si>
+  <si>
+    <t>P-REC-265</t>
+  </si>
+  <si>
+    <t>P-REQ-265</t>
+  </si>
+  <si>
+    <t>P-REC-266</t>
+  </si>
+  <si>
+    <t>P-REQ-266</t>
+  </si>
+  <si>
+    <t>P-REC-267</t>
+  </si>
+  <si>
+    <t>P-REQ-267</t>
+  </si>
+  <si>
+    <t>P-REC-268</t>
+  </si>
+  <si>
+    <t>P-REQ-268</t>
+  </si>
+  <si>
+    <t>P-REC-269</t>
+  </si>
+  <si>
+    <t>P-REQ-269</t>
+  </si>
+  <si>
+    <t>P-REC-270</t>
+  </si>
+  <si>
+    <t>P-REQ-270</t>
+  </si>
+  <si>
+    <t>P-REC-271</t>
+  </si>
+  <si>
+    <t>P-REQ-271</t>
+  </si>
+  <si>
+    <t>P-REC-272</t>
+  </si>
+  <si>
+    <t>P-REQ-272</t>
+  </si>
+  <si>
+    <t>P-REC-273</t>
+  </si>
+  <si>
+    <t>P-REQ-273</t>
+  </si>
+  <si>
+    <t>P-REC-274</t>
+  </si>
+  <si>
+    <t>P-REQ-274</t>
+  </si>
+  <si>
+    <t>P-REC-275</t>
+  </si>
+  <si>
+    <t>P-REQ-275</t>
+  </si>
+  <si>
+    <t>P-REC-276</t>
+  </si>
+  <si>
+    <t>P-REQ-276</t>
+  </si>
+  <si>
+    <t>P-REC-277</t>
+  </si>
+  <si>
+    <t>P-REQ-277</t>
+  </si>
+  <si>
+    <t>P-REC-278</t>
+  </si>
+  <si>
+    <t>P-REQ-278</t>
+  </si>
+  <si>
+    <t>P-REC-279</t>
+  </si>
+  <si>
+    <t>P-REQ-279</t>
+  </si>
+  <si>
+    <t>P-REC-280</t>
+  </si>
+  <si>
+    <t>P-REQ-280</t>
+  </si>
+  <si>
+    <t>P-REC-281</t>
+  </si>
+  <si>
+    <t>P-REQ-281</t>
+  </si>
+  <si>
+    <t>P-REC-282</t>
+  </si>
+  <si>
+    <t>P-REQ-282</t>
+  </si>
+  <si>
+    <t>P-REC-283</t>
+  </si>
+  <si>
+    <t>P-REQ-283</t>
+  </si>
+  <si>
+    <t>P-REC-284</t>
+  </si>
+  <si>
+    <t>P-REQ-284</t>
+  </si>
+  <si>
+    <t>P-REC-285</t>
+  </si>
+  <si>
+    <t>P-REQ-285</t>
+  </si>
+  <si>
+    <t>P-REC-286</t>
+  </si>
+  <si>
+    <t>P-REQ-286</t>
+  </si>
+  <si>
+    <t>P-REC-287</t>
+  </si>
+  <si>
+    <t>P-REQ-287</t>
   </si>
 </sst>
 </file>
@@ -111,7 +1776,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -592,7 +2257,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E11"/>
+      <selection activeCell="A2" sqref="A2:E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +2653,10 @@
         <v>45658</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -999,16 +2664,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>45659</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1016,16 +2681,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>45660</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -1033,16 +2698,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>45661</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1050,16 +2715,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>45667</v>
+        <v>45662</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1067,16 +2732,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>45671</v>
+        <v>45663</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1084,16 +2749,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>45673</v>
+        <v>45664</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1101,16 +2766,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>45679</v>
+        <v>45665</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1118,16 +2783,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>45685</v>
+        <v>45666</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -1135,18 +2800,4727 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45673</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45678</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45680</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45686</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1">
         <v>45688</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45692</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45696</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45698</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45699</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45703</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45704</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45706</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45707</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45708</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45710</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45711</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45712</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45713</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45715</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45718</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45720</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45722</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45723</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45724</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>194</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45783</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45784</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45785</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45786</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45787</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45789</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45790</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45791</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45792</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45793</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45794</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45795</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45796</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45800</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45801</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45802</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45805</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45806</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45807</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45809</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45810</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45811</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45815</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45816</v>
+      </c>
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45817</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45820</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45822</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45823</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>270</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45827</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>276</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45828</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45829</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" t="s">
+        <v>280</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45830</v>
+      </c>
+      <c r="C138" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>282</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45831</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45832</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" t="s">
+        <v>286</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45834</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>288</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45837</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>292</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>294</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45840</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>296</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45841</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>298</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45842</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45844</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" t="s">
+        <v>304</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>305</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>306</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45847</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>308</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45848</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>310</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45849</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45850</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>314</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45851</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>316</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45852</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>318</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>320</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45854</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>322</v>
+      </c>
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>324</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45856</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45857</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45858</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>330</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>331</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45859</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>332</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>333</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45860</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" t="s">
+        <v>334</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>336</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>337</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45865</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>338</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45866</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>340</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>341</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" t="s">
+        <v>342</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>343</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45871</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>344</v>
+      </c>
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45872</v>
+      </c>
+      <c r="C170" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" t="s">
+        <v>346</v>
+      </c>
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>347</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>348</v>
+      </c>
+      <c r="E171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>349</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C172" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" t="s">
+        <v>350</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>351</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45877</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s">
+        <v>352</v>
+      </c>
+      <c r="E173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45878</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>354</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>355</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45879</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45880</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>359</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45881</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" t="s">
+        <v>360</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45882</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>362</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>363</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>364</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>365</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45886</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>366</v>
+      </c>
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>367</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45887</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>368</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>369</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>370</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>371</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>372</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>373</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>374</v>
+      </c>
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>375</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>376</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>377</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s">
+        <v>378</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>379</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>380</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>381</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" t="s">
+        <v>382</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>383</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45895</v>
+      </c>
+      <c r="C189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" t="s">
+        <v>384</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>385</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C190" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s">
+        <v>386</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>387</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>388</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>389</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45899</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>390</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>391</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>392</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>393</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" t="s">
+        <v>394</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45902</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>396</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>397</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45903</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" t="s">
+        <v>398</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>399</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45906</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>400</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>401</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45907</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>402</v>
+      </c>
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C199" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" t="s">
+        <v>404</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>405</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>406</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45913</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" t="s">
+        <v>408</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>409</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>410</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>411</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>412</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>413</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C204" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" t="s">
+        <v>414</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>415</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" t="s">
+        <v>416</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>417</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45919</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" t="s">
+        <v>418</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45920</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>420</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45921</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>422</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>423</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>424</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>425</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C210" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210" t="s">
+        <v>426</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45925</v>
+      </c>
+      <c r="C211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211" t="s">
+        <v>428</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>429</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>430</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>431</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" t="s">
+        <v>432</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45928</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>434</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>435</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" t="s">
+        <v>436</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>438</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>440</v>
+      </c>
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>441</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" t="s">
+        <v>442</v>
+      </c>
+      <c r="E218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>443</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45933</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>444</v>
+      </c>
+      <c r="E219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>445</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45935</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>446</v>
+      </c>
+      <c r="E220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>447</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>448</v>
+      </c>
+      <c r="E221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>449</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" t="s">
+        <v>450</v>
+      </c>
+      <c r="E222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>451</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" t="s">
+        <v>452</v>
+      </c>
+      <c r="E223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>453</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
+        <v>454</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>455</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>456</v>
+      </c>
+      <c r="E225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>457</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>458</v>
+      </c>
+      <c r="E226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>459</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227" t="s">
+        <v>460</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>461</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>462</v>
+      </c>
+      <c r="E228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>463</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45947</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" t="s">
+        <v>464</v>
+      </c>
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>465</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45948</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" t="s">
+        <v>466</v>
+      </c>
+      <c r="E230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>467</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45949</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" t="s">
+        <v>468</v>
+      </c>
+      <c r="E231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>469</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" t="s">
+        <v>470</v>
+      </c>
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>471</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233" t="s">
+        <v>472</v>
+      </c>
+      <c r="E233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>473</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>474</v>
+      </c>
+      <c r="E234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>475</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45955</v>
+      </c>
+      <c r="C235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235" t="s">
+        <v>476</v>
+      </c>
+      <c r="E235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>477</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45956</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>478</v>
+      </c>
+      <c r="E236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>479</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" t="s">
+        <v>480</v>
+      </c>
+      <c r="E237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>481</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D238" t="s">
+        <v>482</v>
+      </c>
+      <c r="E238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>483</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>484</v>
+      </c>
+      <c r="E239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>485</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45963</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>486</v>
+      </c>
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>487</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>488</v>
+      </c>
+      <c r="E241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>489</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C242" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" t="s">
+        <v>490</v>
+      </c>
+      <c r="E242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>491</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45966</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>492</v>
+      </c>
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>493</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C244" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244" t="s">
+        <v>494</v>
+      </c>
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>495</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45970</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>496</v>
+      </c>
+      <c r="E245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>497</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45971</v>
+      </c>
+      <c r="C246" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" t="s">
+        <v>498</v>
+      </c>
+      <c r="E246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>499</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45972</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>500</v>
+      </c>
+      <c r="E247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>501</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45973</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>502</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" t="s">
+        <v>504</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>505</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" t="s">
+        <v>506</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>507</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45976</v>
+      </c>
+      <c r="C251" t="s">
+        <v>27</v>
+      </c>
+      <c r="D251" t="s">
+        <v>508</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>509</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45977</v>
+      </c>
+      <c r="C252" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252" t="s">
+        <v>510</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>511</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45978</v>
+      </c>
+      <c r="C253" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" t="s">
+        <v>512</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>513</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C254" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" t="s">
+        <v>514</v>
+      </c>
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>515</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45980</v>
+      </c>
+      <c r="C255" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" t="s">
+        <v>516</v>
+      </c>
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>517</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>518</v>
+      </c>
+      <c r="E256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>519</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C257" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" t="s">
+        <v>520</v>
+      </c>
+      <c r="E257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>521</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45984</v>
+      </c>
+      <c r="C258" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" t="s">
+        <v>522</v>
+      </c>
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>523</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" t="s">
+        <v>524</v>
+      </c>
+      <c r="E259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>526</v>
+      </c>
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>527</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>528</v>
+      </c>
+      <c r="E261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>530</v>
+      </c>
+      <c r="E262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>531</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45990</v>
+      </c>
+      <c r="C263" t="s">
+        <v>27</v>
+      </c>
+      <c r="D263" t="s">
+        <v>532</v>
+      </c>
+      <c r="E263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>533</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C264" t="s">
+        <v>27</v>
+      </c>
+      <c r="D264" t="s">
+        <v>534</v>
+      </c>
+      <c r="E264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>535</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45992</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265" t="s">
+        <v>536</v>
+      </c>
+      <c r="E265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>537</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" t="s">
+        <v>538</v>
+      </c>
+      <c r="E266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>539</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45994</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>540</v>
+      </c>
+      <c r="E267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>541</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45995</v>
+      </c>
+      <c r="C268" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" t="s">
+        <v>542</v>
+      </c>
+      <c r="E268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>543</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269" t="s">
+        <v>544</v>
+      </c>
+      <c r="E269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>545</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45997</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>546</v>
+      </c>
+      <c r="E270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>547</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45998</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271" t="s">
+        <v>548</v>
+      </c>
+      <c r="E271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>549</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C272" t="s">
+        <v>26</v>
+      </c>
+      <c r="D272" t="s">
+        <v>550</v>
+      </c>
+      <c r="E272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>551</v>
+      </c>
+      <c r="B273" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C273" t="s">
+        <v>27</v>
+      </c>
+      <c r="D273" t="s">
+        <v>552</v>
+      </c>
+      <c r="E273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>553</v>
+      </c>
+      <c r="B274" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C274" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274" t="s">
+        <v>554</v>
+      </c>
+      <c r="E274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>555</v>
+      </c>
+      <c r="B275" s="1">
+        <v>46004</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>556</v>
+      </c>
+      <c r="E275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>557</v>
+      </c>
+      <c r="B276" s="1">
+        <v>46005</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>558</v>
+      </c>
+      <c r="E276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>559</v>
+      </c>
+      <c r="B277" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>560</v>
+      </c>
+      <c r="E277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>561</v>
+      </c>
+      <c r="B278" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>562</v>
+      </c>
+      <c r="E278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>563</v>
+      </c>
+      <c r="B279" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" t="s">
+        <v>564</v>
+      </c>
+      <c r="E279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>565</v>
+      </c>
+      <c r="B280" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" t="s">
+        <v>566</v>
+      </c>
+      <c r="E280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>567</v>
+      </c>
+      <c r="B281" s="1">
+        <v>46010</v>
+      </c>
+      <c r="C281" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" t="s">
+        <v>568</v>
+      </c>
+      <c r="E281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>569</v>
+      </c>
+      <c r="B282" s="1">
+        <v>46011</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>570</v>
+      </c>
+      <c r="E282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>571</v>
+      </c>
+      <c r="B283" s="1">
+        <v>46012</v>
+      </c>
+      <c r="C283" t="s">
+        <v>27</v>
+      </c>
+      <c r="D283" t="s">
+        <v>572</v>
+      </c>
+      <c r="E283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>573</v>
+      </c>
+      <c r="B284" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C284" t="s">
+        <v>27</v>
+      </c>
+      <c r="D284" t="s">
+        <v>574</v>
+      </c>
+      <c r="E284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>575</v>
+      </c>
+      <c r="B285" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>576</v>
+      </c>
+      <c r="E285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>577</v>
+      </c>
+      <c r="B286" s="1">
+        <v>46017</v>
+      </c>
+      <c r="C286" t="s">
+        <v>27</v>
+      </c>
+      <c r="D286" t="s">
+        <v>578</v>
+      </c>
+      <c r="E286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>579</v>
+      </c>
+      <c r="B287" s="1">
+        <v>46018</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" t="s">
+        <v>580</v>
+      </c>
+      <c r="E287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>581</v>
+      </c>
+      <c r="B288" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C288" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" t="s">
+        <v>582</v>
+      </c>
+      <c r="E288" t="s">
         <v>5</v>
       </c>
     </row>
